--- a/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="129">
   <si>
     <t>土地圭落</t>
   </si>
@@ -201,6 +201,15 @@
     <t>total</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
     <t>太電</t>
   </si>
   <si>
@@ -340,6 +349,9 @@
   </si>
   <si>
     <t>66，560</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
   </si>
   <si>
     <t>投資人</t>
@@ -1331,13 +1343,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1356,13 +1368,22 @@
       <c r="G1" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1379,13 +1400,22 @@
       <c r="G2" s="2">
         <v>240</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1402,13 +1432,22 @@
       <c r="G3" s="2">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1425,13 +1464,22 @@
       <c r="G4" s="2">
         <v>220420</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1448,13 +1496,22 @@
       <c r="G5" s="2">
         <v>760</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1471,13 +1528,22 @@
       <c r="G6" s="2">
         <v>26410</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1">
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1492,15 +1558,24 @@
         <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1">
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1517,13 +1592,22 @@
       <c r="G8" s="2">
         <v>277830</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1">
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1540,13 +1624,22 @@
       <c r="G9" s="2">
         <v>237400</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1">
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1563,13 +1656,22 @@
       <c r="G10" s="2">
         <v>990</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1">
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1584,15 +1686,24 @@
         <v>46</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>106</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1">
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1609,13 +1720,22 @@
       <c r="G12" s="2">
         <v>76330</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1">
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1632,13 +1752,22 @@
       <c r="G13" s="2">
         <v>9510</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1">
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1655,13 +1784,22 @@
       <c r="G14" s="2">
         <v>173770</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1">
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -1678,13 +1816,22 @@
       <c r="G15" s="2">
         <v>2740</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1">
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -1701,13 +1848,22 @@
       <c r="G16" s="2">
         <v>6420</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1">
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -1724,13 +1880,22 @@
       <c r="G17" s="2">
         <v>150</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1">
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -1747,13 +1912,22 @@
       <c r="G18" s="2">
         <v>1370</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1">
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -1770,13 +1944,22 @@
       <c r="G19" s="2">
         <v>4950</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1">
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -1793,13 +1976,22 @@
       <c r="G20" s="2">
         <v>218000</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1">
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -1814,15 +2006,24 @@
         <v>46</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>107</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1">
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -1839,13 +2040,22 @@
       <c r="G22" s="2">
         <v>460</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1">
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -1862,13 +2072,22 @@
       <c r="G23" s="2">
         <v>11790</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1">
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1885,13 +2104,22 @@
       <c r="G24" s="2">
         <v>230</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -1908,13 +2136,22 @@
       <c r="G25" s="2">
         <v>990</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1">
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -1931,13 +2168,22 @@
       <c r="G26" s="2">
         <v>260</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1">
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -1952,15 +2198,24 @@
         <v>46</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>108</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1">
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -1977,19 +2232,28 @@
       <c r="G28" s="2">
         <v>4050</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1">
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
@@ -2000,13 +2264,22 @@
       <c r="G29" s="2">
         <v>267730</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1">
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2023,13 +2296,22 @@
       <c r="G30" s="2">
         <v>1450</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1">
         <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -2046,13 +2328,22 @@
       <c r="G31" s="2">
         <v>203960</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1">
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -2069,13 +2360,22 @@
       <c r="G32" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1">
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -2092,13 +2392,22 @@
       <c r="G33" s="2">
         <v>236640</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1">
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -2115,19 +2424,28 @@
       <c r="G34" s="2">
         <v>255840</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1">
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
@@ -2138,13 +2456,22 @@
       <c r="G35" s="2">
         <v>272950</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1">
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -2159,21 +2486,30 @@
         <v>46</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>109</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1">
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E37" s="2">
         <v>10</v>
@@ -2184,13 +2520,22 @@
       <c r="G37" s="2">
         <v>459940</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1">
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -2207,16 +2552,25 @@
       <c r="G38" s="2">
         <v>3450</v>
       </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="H38" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1">
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D39" s="2">
         <v>632</v>
@@ -2229,6 +2583,15 @@
       </c>
       <c r="G39" s="2">
         <v>6320</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="2">
+        <v>960</v>
       </c>
     </row>
   </sheetData>
@@ -2246,22 +2609,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2272,19 +2635,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2295,19 +2658,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2318,19 +2681,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="131">
   <si>
     <t>土地圭落</t>
   </si>
@@ -201,6 +201,9 @@
     <t>total</t>
   </si>
   <si>
+    <t>property_category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -324,31 +327,34 @@
     <t>尖美</t>
   </si>
   <si>
-    <t>士曰.丽 楊麗場</t>
-  </si>
-  <si>
-    <t>26，773</t>
-  </si>
-  <si>
-    <t>27，295</t>
-  </si>
-  <si>
-    <t>45，994</t>
-  </si>
-  <si>
-    <t>2,275,950</t>
-  </si>
-  <si>
-    <t>1,000,000</t>
-  </si>
-  <si>
-    <t>55，990</t>
-  </si>
-  <si>
-    <t>3，090</t>
-  </si>
-  <si>
-    <t>66，560</t>
+    <t>士曰.丽楊麗場</t>
+  </si>
+  <si>
+    <t>26773</t>
+  </si>
+  <si>
+    <t>27295</t>
+  </si>
+  <si>
+    <t>45994</t>
+  </si>
+  <si>
+    <t>2275950</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>55990</t>
+  </si>
+  <si>
+    <t>3090</t>
+  </si>
+  <si>
+    <t>66560</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>2012-04-30</t>
@@ -1343,13 +1349,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1377,13 +1383,16 @@
       <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1401,21 +1410,24 @@
         <v>240</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J2" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1433,21 +1445,24 @@
         <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J3" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1465,21 +1480,24 @@
         <v>220420</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1497,21 +1515,24 @@
         <v>760</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1529,21 +1550,24 @@
         <v>26410</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J6" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K6" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1">
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1558,24 +1582,27 @@
         <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1593,21 +1620,24 @@
         <v>277830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J8" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1625,21 +1655,24 @@
         <v>237400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J9" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1">
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1657,21 +1690,24 @@
         <v>990</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1">
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1686,24 +1722,27 @@
         <v>46</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1">
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1721,21 +1760,24 @@
         <v>76330</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K12" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1">
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1753,21 +1795,24 @@
         <v>9510</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J13" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1">
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1785,21 +1830,24 @@
         <v>173770</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J14" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K14" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1">
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -1817,21 +1865,24 @@
         <v>2740</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J15" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K15" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1">
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -1849,21 +1900,24 @@
         <v>6420</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1">
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -1881,21 +1935,24 @@
         <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J17" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K17" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1">
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -1913,21 +1970,24 @@
         <v>1370</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J18" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K18" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1">
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -1945,21 +2005,24 @@
         <v>4950</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J19" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K19" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1">
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -1977,21 +2040,24 @@
         <v>218000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J20" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K20" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1">
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -2006,24 +2072,27 @@
         <v>46</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K21" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1">
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -2041,21 +2110,24 @@
         <v>460</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J22" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1">
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -2073,21 +2145,24 @@
         <v>11790</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J23" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1">
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -2105,21 +2180,24 @@
         <v>230</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J24" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K24" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1">
         <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -2137,21 +2215,24 @@
         <v>990</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K25" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1">
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -2169,21 +2250,24 @@
         <v>260</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J26" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K26" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1">
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -2198,24 +2282,27 @@
         <v>46</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J27" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1">
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -2233,27 +2320,30 @@
         <v>4050</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J28" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K28" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1">
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
@@ -2265,21 +2355,24 @@
         <v>267730</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J29" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1">
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2297,21 +2390,24 @@
         <v>1450</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J30" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K30" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1">
         <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -2329,21 +2425,24 @@
         <v>203960</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J31" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K31" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1">
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -2361,21 +2460,24 @@
         <v>200000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J32" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1">
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -2393,21 +2495,24 @@
         <v>236640</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J33" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K33" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1">
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -2425,27 +2530,30 @@
         <v>255840</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J34" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1">
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
@@ -2457,21 +2565,24 @@
         <v>272950</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1">
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -2486,30 +2597,33 @@
         <v>46</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J36" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K36" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1">
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E37" s="2">
         <v>10</v>
@@ -2521,21 +2635,24 @@
         <v>459940</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J37" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K37" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1">
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -2553,24 +2670,27 @@
         <v>3450</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J38" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>112</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K38" s="2">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1">
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D39" s="2">
         <v>632</v>
@@ -2585,12 +2705,15 @@
         <v>6320</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J39" s="2">
+        <v>112</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K39" s="2">
         <v>960</v>
       </c>
     </row>
@@ -2609,22 +2732,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2635,19 +2758,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2658,19 +2781,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2681,19 +2804,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="136">
   <si>
     <t>土地圭落</t>
   </si>
@@ -204,6 +204,9 @@
     <t>property_category</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>date</t>
   </si>
   <si>
@@ -213,6 +216,12 @@
     <t>legislator_id</t>
   </si>
   <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
     <t>太電</t>
   </si>
   <si>
@@ -357,7 +366,13 @@
     <t>stock</t>
   </si>
   <si>
+    <t>normal</t>
+  </si>
+  <si>
     <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp700a1</t>
   </si>
   <si>
     <t>投資人</t>
@@ -1349,13 +1364,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
         <v>54</v>
       </c>
@@ -1386,13 +1401,22 @@
       <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>9</v>
@@ -1410,24 +1434,33 @@
         <v>240</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="2">
+        <v>960</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N2" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
@@ -1445,24 +1478,33 @@
         <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="2">
+        <v>960</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N3" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
@@ -1480,24 +1522,33 @@
         <v>220420</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="2">
+        <v>960</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N4" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
@@ -1515,24 +1566,33 @@
         <v>760</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="2">
+        <v>960</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N5" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
@@ -1550,24 +1610,33 @@
         <v>26410</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K6" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="2">
+        <v>960</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N6" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
@@ -1582,27 +1651,36 @@
         <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K7" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L7" s="2">
+        <v>960</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N7" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -1620,24 +1698,33 @@
         <v>277830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K8" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="2">
+        <v>960</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N8" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>9</v>
@@ -1655,24 +1742,33 @@
         <v>237400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K9" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L9" s="2">
+        <v>960</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -1690,24 +1786,33 @@
         <v>990</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K10" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L10" s="2">
+        <v>960</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -1722,27 +1827,36 @@
         <v>46</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="2">
+        <v>960</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1760,24 +1874,33 @@
         <v>76330</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K12" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" s="2">
+        <v>960</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -1795,24 +1918,33 @@
         <v>9510</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K13" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L13" s="2">
+        <v>960</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N13" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
@@ -1830,24 +1962,33 @@
         <v>173770</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K14" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L14" s="2">
+        <v>960</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
@@ -1865,24 +2006,33 @@
         <v>2740</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K15" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L15" s="2">
+        <v>960</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
@@ -1900,24 +2050,33 @@
         <v>6420</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K16" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L16" s="2">
+        <v>960</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N16" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -1935,24 +2094,33 @@
         <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K17" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L17" s="2">
+        <v>960</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N17" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
@@ -1970,24 +2138,33 @@
         <v>1370</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K18" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="2">
+        <v>960</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
@@ -2005,24 +2182,33 @@
         <v>4950</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K19" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L19" s="2">
+        <v>960</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N19" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
@@ -2040,24 +2226,33 @@
         <v>218000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K20" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L20" s="2">
+        <v>960</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N20" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
@@ -2072,27 +2267,36 @@
         <v>46</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K21" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L21" s="2">
+        <v>960</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N21" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
@@ -2110,24 +2314,33 @@
         <v>460</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="2">
+        <v>960</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
@@ -2145,24 +2358,33 @@
         <v>11790</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L23" s="2">
+        <v>960</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N23" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -2180,24 +2402,33 @@
         <v>230</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K24" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L24" s="2">
+        <v>960</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N24" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>9</v>
@@ -2215,24 +2446,33 @@
         <v>990</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K25" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L25" s="2">
+        <v>960</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N25" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1">
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
@@ -2250,24 +2490,33 @@
         <v>260</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K26" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L26" s="2">
+        <v>960</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N26" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1">
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
@@ -2282,27 +2531,36 @@
         <v>46</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K27" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" s="2">
+        <v>960</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N27" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1">
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
@@ -2320,30 +2578,39 @@
         <v>4050</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K28" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="2">
+        <v>960</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N28" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1">
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
@@ -2355,24 +2622,33 @@
         <v>267730</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K29" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L29" s="2">
+        <v>960</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N29" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1">
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
@@ -2390,24 +2666,33 @@
         <v>1450</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K30" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L30" s="2">
+        <v>960</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N30" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1">
         <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
@@ -2425,24 +2710,33 @@
         <v>203960</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K31" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="2">
+        <v>960</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N31" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1">
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
@@ -2460,24 +2754,33 @@
         <v>200000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K32" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L32" s="2">
+        <v>960</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N32" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
       <c r="A33" s="1">
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
@@ -2495,24 +2798,33 @@
         <v>236640</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K33" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L33" s="2">
+        <v>960</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N33" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="1">
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -2530,30 +2842,39 @@
         <v>255840</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K34" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L34" s="2">
+        <v>960</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N34" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="1">
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
@@ -2565,24 +2886,33 @@
         <v>272950</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K35" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L35" s="2">
+        <v>960</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N35" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" s="1">
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -2597,33 +2927,42 @@
         <v>46</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K36" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L36" s="2">
+        <v>960</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N36" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="1">
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E37" s="2">
         <v>10</v>
@@ -2635,24 +2974,33 @@
         <v>459940</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K37" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L37" s="2">
+        <v>960</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N37" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="1">
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -2670,27 +3018,36 @@
         <v>3450</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K38" s="2">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>116</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L38" s="2">
+        <v>960</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N38" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="1">
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D39" s="2">
         <v>632</v>
@@ -2705,16 +3062,25 @@
         <v>6320</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K39" s="2">
-        <v>960</v>
+        <v>116</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="2">
+        <v>960</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N39" s="2">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2732,22 +3098,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2758,19 +3124,19 @@
         <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2781,19 +3147,19 @@
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -2804,19 +3170,19 @@
         <v>9</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
@@ -19,9 +19,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="136">
-  <si>
-    <t>土地圭落</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="141">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>share_portion</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>register_reason</t>
+  </si>
+  <si>
+    <t>acquire_value</t>
+  </si>
+  <si>
+    <t>property_category</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>legislator_name</t>
+  </si>
+  <si>
+    <t>legislator_id</t>
+  </si>
+  <si>
+    <t>source_file</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>桃圜縣桃園市和平段04110000地號</t>
+  </si>
+  <si>
+    <t>100000分之1942</t>
+  </si>
+  <si>
+    <t>楊麗環</t>
+  </si>
+  <si>
+    <t>97年05月19日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>1102154</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp700a1</t>
+  </si>
+  <si>
+    <t>建物標示</t>
   </si>
   <si>
     <t>面積（平方公尺）</t>
@@ -42,31 +114,10 @@
     <t>取得價額</t>
   </si>
   <si>
-    <t>桃圜縣桃園市和平段0411 -0000 地號</t>
-  </si>
-  <si>
-    <t>100000 分 之 1942</t>
-  </si>
-  <si>
-    <t>楊麗環</t>
-  </si>
-  <si>
-    <t>97年05月 19日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>1,102,154</t>
-  </si>
-  <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>桃圜縣桃園市莊二段04489-000 建號</t>
-  </si>
-  <si>
-    <t>桃園縣桃園市莊二段04460-000 建號</t>
+    <t>桃圜縣桃園市莊二段04489000建號</t>
+  </si>
+  <si>
+    <t>桃園縣桃園市莊二段04460000建號</t>
   </si>
   <si>
     <t>全部</t>
@@ -75,7 +126,7 @@
     <t>71分之1</t>
   </si>
   <si>
-    <t>97年05月 19曰</t>
+    <t>97年05月19曰</t>
   </si>
   <si>
     <t>廠牌型號</t>
@@ -90,10 +141,10 @@
     <t>國瑞</t>
   </si>
   <si>
-    <t>97年05月 26日</t>
-  </si>
-  <si>
-    <t>1,150,000</t>
+    <t>97年05月26日</t>
+  </si>
+  <si>
+    <t>1150000</t>
   </si>
   <si>
     <t>存放機構(應敘明分支機構）</t>
@@ -144,7 +195,7 @@
     <t>台北富邦商業銀行</t>
   </si>
   <si>
-    <t>大眾商業銀行國外部，國際 金融業務分行</t>
+    <t>大眾商業銀行國外部國際金融業務分行</t>
   </si>
   <si>
     <t>活期存款</t>
@@ -165,28 +216,22 @@
     <t>南非幣</t>
   </si>
   <si>
-    <t>124,267.98</t>
-  </si>
-  <si>
-    <t>1,219,105</t>
-  </si>
-  <si>
-    <t>1,176,037</t>
-  </si>
-  <si>
-    <t>1,589,557</t>
-  </si>
-  <si>
-    <t>1,278,554</t>
-  </si>
-  <si>
-    <t>462,276.89</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>owner</t>
+    <t>124267.98</t>
+  </si>
+  <si>
+    <t>1219105</t>
+  </si>
+  <si>
+    <t>1176037</t>
+  </si>
+  <si>
+    <t>1589557</t>
+  </si>
+  <si>
+    <t>1278554</t>
+  </si>
+  <si>
+    <t>462276.89</t>
   </si>
   <si>
     <t>quantity</t>
@@ -201,27 +246,6 @@
     <t>total</t>
   </si>
   <si>
-    <t>property_category</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>legislator_name</t>
-  </si>
-  <si>
-    <t>legislator_id</t>
-  </si>
-  <si>
-    <t>source_file</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
     <t>太電</t>
   </si>
   <si>
@@ -366,15 +390,6 @@
     <t>stock</t>
   </si>
   <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmp700a1</t>
-  </si>
-  <si>
     <t>投資人</t>
   </si>
   <si>
@@ -411,19 +426,19 @@
     <t>桃圜縣桃德路305號</t>
   </si>
   <si>
-    <t>2,000,000</t>
-  </si>
-  <si>
-    <t>2,500,000</t>
-  </si>
-  <si>
-    <t>87年08月 01日</t>
-  </si>
-  <si>
-    <t>92年08月 01日</t>
-  </si>
-  <si>
-    <t>100年02月 01日</t>
+    <t>2000000</t>
+  </si>
+  <si>
+    <t>2500000</t>
+  </si>
+  <si>
+    <t>87年08月01日</t>
+  </si>
+  <si>
+    <t>92年08月01日</t>
+  </si>
+  <si>
+    <t>100年02月01日</t>
   </si>
   <si>
     <t>投資</t>
@@ -785,13 +800,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -813,31 +828,73 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>14</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2">
         <v>1796</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="2">
+        <v>960</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -855,25 +912,25 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -881,22 +938,22 @@
         <v>19</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2">
         <v>121.97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2">
         <v>892100</v>
@@ -907,22 +964,22 @@
         <v>20</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>9.29</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="H3" s="2">
         <v>130639</v>
@@ -943,22 +1000,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -966,22 +1023,22 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -999,22 +1056,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1022,20 +1079,20 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1043,20 +1100,20 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1064,20 +1121,20 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1085,16 +1142,16 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
@@ -1106,16 +1163,16 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
@@ -1127,16 +1184,16 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
@@ -1148,16 +1205,16 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
@@ -1169,16 +1226,16 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2">
@@ -1190,20 +1247,20 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1211,16 +1268,16 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
@@ -1232,16 +1289,16 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
@@ -1253,16 +1310,16 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
@@ -1274,16 +1331,16 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
@@ -1295,16 +1352,16 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2">
@@ -1316,22 +1373,22 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1339,16 +1396,16 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F17" s="2">
         <v>9.28</v>
@@ -1372,43 +1429,43 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1416,10 +1473,10 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2">
         <v>24</v>
@@ -1428,28 +1485,28 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G2" s="2">
         <v>240</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L2" s="2">
         <v>960</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N2" s="2">
         <v>67</v>
@@ -1460,10 +1517,10 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="2">
         <v>10</v>
@@ -1472,28 +1529,28 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2">
         <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2">
         <v>960</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N3" s="2">
         <v>68</v>
@@ -1504,10 +1561,10 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
         <v>22042</v>
@@ -1516,28 +1573,28 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2">
         <v>220420</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L4" s="2">
         <v>960</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N4" s="2">
         <v>69</v>
@@ -1548,10 +1605,10 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2">
         <v>76</v>
@@ -1560,28 +1617,28 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2">
         <v>760</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L5" s="2">
         <v>960</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N5" s="2">
         <v>70</v>
@@ -1592,10 +1649,10 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
         <v>2641</v>
@@ -1604,28 +1661,28 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G6" s="2">
         <v>26410</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L6" s="2">
         <v>960</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N6" s="2">
         <v>71</v>
@@ -1636,10 +1693,10 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2">
         <v>227595</v>
@@ -1648,28 +1705,28 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L7" s="2">
         <v>960</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N7" s="2">
         <v>72</v>
@@ -1680,10 +1737,10 @@
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2">
         <v>27783</v>
@@ -1692,28 +1749,28 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2">
         <v>277830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L8" s="2">
         <v>960</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N8" s="2">
         <v>73</v>
@@ -1724,10 +1781,10 @@
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D9" s="2">
         <v>23740</v>
@@ -1736,28 +1793,28 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G9" s="2">
         <v>237400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L9" s="2">
         <v>960</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N9" s="2">
         <v>74</v>
@@ -1768,10 +1825,10 @@
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2">
         <v>99</v>
@@ -1780,28 +1837,28 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G10" s="2">
         <v>990</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L10" s="2">
         <v>960</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N10" s="2">
         <v>75</v>
@@ -1812,10 +1869,10 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D11" s="2">
         <v>100000</v>
@@ -1824,28 +1881,28 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L11" s="2">
         <v>960</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N11" s="2">
         <v>76</v>
@@ -1856,10 +1913,10 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D12" s="2">
         <v>7633</v>
@@ -1868,28 +1925,28 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G12" s="2">
         <v>76330</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L12" s="2">
         <v>960</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N12" s="2">
         <v>78</v>
@@ -1900,10 +1957,10 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D13" s="2">
         <v>951</v>
@@ -1912,28 +1969,28 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G13" s="2">
         <v>9510</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L13" s="2">
         <v>960</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N13" s="2">
         <v>79</v>
@@ -1944,10 +2001,10 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2">
         <v>17377</v>
@@ -1956,28 +2013,28 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G14" s="2">
         <v>173770</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L14" s="2">
         <v>960</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N14" s="2">
         <v>80</v>
@@ -1988,10 +2045,10 @@
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D15" s="2">
         <v>274</v>
@@ -2000,28 +2057,28 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G15" s="2">
         <v>2740</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L15" s="2">
         <v>960</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N15" s="2">
         <v>81</v>
@@ -2032,10 +2089,10 @@
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2">
         <v>642</v>
@@ -2044,28 +2101,28 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G16" s="2">
         <v>6420</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L16" s="2">
         <v>960</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N16" s="2">
         <v>82</v>
@@ -2076,10 +2133,10 @@
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D17" s="2">
         <v>15</v>
@@ -2088,28 +2145,28 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G17" s="2">
         <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L17" s="2">
         <v>960</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N17" s="2">
         <v>83</v>
@@ -2120,10 +2177,10 @@
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D18" s="2">
         <v>137</v>
@@ -2132,28 +2189,28 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2">
         <v>1370</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L18" s="2">
         <v>960</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N18" s="2">
         <v>84</v>
@@ -2164,10 +2221,10 @@
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="2">
         <v>495</v>
@@ -2176,28 +2233,28 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G19" s="2">
         <v>4950</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L19" s="2">
         <v>960</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N19" s="2">
         <v>85</v>
@@ -2208,10 +2265,10 @@
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D20" s="2">
         <v>21800</v>
@@ -2220,28 +2277,28 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G20" s="2">
         <v>218000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L20" s="2">
         <v>960</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N20" s="2">
         <v>86</v>
@@ -2252,10 +2309,10 @@
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2">
         <v>5599</v>
@@ -2264,28 +2321,28 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L21" s="2">
         <v>960</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N21" s="2">
         <v>87</v>
@@ -2296,10 +2353,10 @@
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2">
         <v>46</v>
@@ -2308,28 +2365,28 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G22" s="2">
         <v>460</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L22" s="2">
         <v>960</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N22" s="2">
         <v>88</v>
@@ -2340,10 +2397,10 @@
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="2">
         <v>1179</v>
@@ -2352,28 +2409,28 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G23" s="2">
         <v>11790</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L23" s="2">
         <v>960</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N23" s="2">
         <v>89</v>
@@ -2384,10 +2441,10 @@
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="2">
         <v>23</v>
@@ -2396,28 +2453,28 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G24" s="2">
         <v>230</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L24" s="2">
         <v>960</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N24" s="2">
         <v>90</v>
@@ -2428,10 +2485,10 @@
         <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2">
         <v>99</v>
@@ -2440,28 +2497,28 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G25" s="2">
         <v>990</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L25" s="2">
         <v>960</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N25" s="2">
         <v>91</v>
@@ -2472,10 +2529,10 @@
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2">
         <v>26</v>
@@ -2484,28 +2541,28 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G26" s="2">
         <v>260</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L26" s="2">
         <v>960</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N26" s="2">
         <v>92</v>
@@ -2516,10 +2573,10 @@
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D27" s="2">
         <v>309</v>
@@ -2528,28 +2585,28 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L27" s="2">
         <v>960</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N27" s="2">
         <v>93</v>
@@ -2560,10 +2617,10 @@
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D28" s="2">
         <v>405</v>
@@ -2572,28 +2629,28 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G28" s="2">
         <v>4050</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L28" s="2">
         <v>960</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N28" s="2">
         <v>94</v>
@@ -2604,40 +2661,40 @@
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G29" s="2">
         <v>267730</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L29" s="2">
         <v>960</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N29" s="2">
         <v>95</v>
@@ -2648,10 +2705,10 @@
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D30" s="2">
         <v>145</v>
@@ -2660,28 +2717,28 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G30" s="2">
         <v>1450</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L30" s="2">
         <v>960</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N30" s="2">
         <v>96</v>
@@ -2692,10 +2749,10 @@
         <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D31" s="2">
         <v>20396</v>
@@ -2704,28 +2761,28 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G31" s="2">
         <v>203960</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L31" s="2">
         <v>960</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N31" s="2">
         <v>97</v>
@@ -2736,10 +2793,10 @@
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D32" s="2">
         <v>20000</v>
@@ -2748,28 +2805,28 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G32" s="2">
         <v>200000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L32" s="2">
         <v>960</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N32" s="2">
         <v>98</v>
@@ -2780,10 +2837,10 @@
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D33" s="2">
         <v>23664</v>
@@ -2792,28 +2849,28 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G33" s="2">
         <v>236640</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L33" s="2">
         <v>960</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N33" s="2">
         <v>99</v>
@@ -2824,10 +2881,10 @@
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2">
         <v>25584</v>
@@ -2836,28 +2893,28 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G34" s="2">
         <v>255840</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L34" s="2">
         <v>960</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N34" s="2">
         <v>100</v>
@@ -2868,40 +2925,40 @@
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G35" s="2">
         <v>272950</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L35" s="2">
         <v>960</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N35" s="2">
         <v>101</v>
@@ -2912,10 +2969,10 @@
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2">
         <v>6656</v>
@@ -2924,28 +2981,28 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L36" s="2">
         <v>960</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N36" s="2">
         <v>102</v>
@@ -2956,40 +3013,40 @@
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="E37" s="2">
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G37" s="2">
         <v>459940</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L37" s="2">
         <v>960</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N37" s="2">
         <v>103</v>
@@ -3000,10 +3057,10 @@
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D38" s="2">
         <v>345</v>
@@ -3012,28 +3069,28 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G38" s="2">
         <v>3450</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L38" s="2">
         <v>960</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N38" s="2">
         <v>104</v>
@@ -3044,10 +3101,10 @@
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="D39" s="2">
         <v>632</v>
@@ -3056,28 +3113,28 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G39" s="2">
         <v>6320</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="K39" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="L39" s="2">
         <v>960</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>117</v>
+        <v>23</v>
       </c>
       <c r="N39" s="2">
         <v>105</v>
@@ -3098,22 +3155,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3121,22 +3178,22 @@
         <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3144,22 +3201,22 @@
         <v>145</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3167,22 +3224,22 @@
         <v>146</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="116">
   <si>
     <t>name</t>
   </si>
@@ -63,10 +63,16 @@
     <t>index</t>
   </si>
   <si>
-    <t>桃圜縣桃園市和平段04110000地號</t>
-  </si>
-  <si>
-    <t>100000分之1942</t>
+    <t>portion</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>桃圜縣桃園市莊二段04489000建號</t>
+  </si>
+  <si>
+    <t>全部</t>
   </si>
   <si>
     <t>楊麗環</t>
@@ -78,10 +84,244 @@
     <t>買賣</t>
   </si>
   <si>
-    <t>1102154</t>
-  </si>
-  <si>
-    <t>land</t>
+    <t>桃園縣桃園市莊二段04460000建號</t>
+  </si>
+  <si>
+    <t>71分之1</t>
+  </si>
+  <si>
+    <t>97年05月19曰</t>
+  </si>
+  <si>
+    <t>國瑞</t>
+  </si>
+  <si>
+    <t>97年05月26日</t>
+  </si>
+  <si>
+    <t>1150000</t>
+  </si>
+  <si>
+    <t>合作金庫商業銀行</t>
+  </si>
+  <si>
+    <t>活期存款</t>
+  </si>
+  <si>
+    <t>新臺幣</t>
+  </si>
+  <si>
+    <t>1219105</t>
+  </si>
+  <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>桃圜縣桃園市農會</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>桃圜信用合作社</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>中國國際商業銀行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行</t>
+  </si>
+  <si>
+    <t>渣打國際商業銀行</t>
+  </si>
+  <si>
+    <t>遠東國際商業銀行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行國外部國際金融業務分行</t>
+  </si>
+  <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
+    <t>南非幣</t>
+  </si>
+  <si>
+    <t>124267.98</t>
+  </si>
+  <si>
+    <t>1176037</t>
+  </si>
+  <si>
+    <t>1589557</t>
+  </si>
+  <si>
+    <t>1278554</t>
+  </si>
+  <si>
+    <t>462276.89</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>face_value</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>華新</t>
+  </si>
+  <si>
+    <t>生達</t>
+  </si>
+  <si>
+    <t>冠軍</t>
+  </si>
+  <si>
+    <t>永豐餘</t>
+  </si>
+  <si>
+    <t>燁輝</t>
+  </si>
+  <si>
+    <t>聯電</t>
+  </si>
+  <si>
+    <t>仁寶</t>
+  </si>
+  <si>
+    <t>茂矽</t>
+  </si>
+  <si>
+    <t>華邦電</t>
+  </si>
+  <si>
+    <t>佳世達</t>
+  </si>
+  <si>
+    <t>宏碁</t>
+  </si>
+  <si>
+    <t>英業達</t>
+  </si>
+  <si>
+    <t>美格</t>
+  </si>
+  <si>
+    <t>中工</t>
+  </si>
+  <si>
+    <t>達欣工</t>
+  </si>
+  <si>
+    <t>長榮</t>
+  </si>
+  <si>
+    <t>山隆</t>
+  </si>
+  <si>
+    <t>彰銀</t>
+  </si>
+  <si>
+    <t>中壽</t>
+  </si>
+  <si>
+    <t>華南金</t>
+  </si>
+  <si>
+    <t>國泰金</t>
+  </si>
+  <si>
+    <t>元大金</t>
+  </si>
+  <si>
+    <t>兆彗金</t>
+  </si>
+  <si>
+    <t>台新金</t>
+  </si>
+  <si>
+    <t>欣興</t>
+  </si>
+  <si>
+    <t>加捷</t>
+  </si>
+  <si>
+    <t>茂德</t>
+  </si>
+  <si>
+    <t>志嘉</t>
+  </si>
+  <si>
+    <t>凱基證</t>
+  </si>
+  <si>
+    <t>宏遠證</t>
+  </si>
+  <si>
+    <t>康和證</t>
+  </si>
+  <si>
+    <t>大慶證</t>
+  </si>
+  <si>
+    <t>大眾證</t>
+  </si>
+  <si>
+    <t>競國</t>
+  </si>
+  <si>
+    <t>彩晶</t>
+  </si>
+  <si>
+    <t>三采</t>
+  </si>
+  <si>
+    <t>尖美</t>
+  </si>
+  <si>
+    <t>士曰.丽楊麗場</t>
+  </si>
+  <si>
+    <t>26773</t>
+  </si>
+  <si>
+    <t>27295</t>
+  </si>
+  <si>
+    <t>45994</t>
+  </si>
+  <si>
+    <t>2275950</t>
+  </si>
+  <si>
+    <t>1000000</t>
+  </si>
+  <si>
+    <t>55990</t>
+  </si>
+  <si>
+    <t>3090</t>
+  </si>
+  <si>
+    <t>66560</t>
+  </si>
+  <si>
+    <t>stock</t>
   </si>
   <si>
     <t>normal</t>
@@ -93,333 +333,24 @@
     <t>tmp700a1</t>
   </si>
   <si>
-    <t>建物標示</t>
-  </si>
-  <si>
-    <t>面積（平方公尺）</t>
-  </si>
-  <si>
-    <t>權利範圍(持分）</t>
-  </si>
-  <si>
-    <t>所有權人</t>
-  </si>
-  <si>
-    <t>登記（取得）時間</t>
-  </si>
-  <si>
-    <t>登記（取得）原因</t>
-  </si>
-  <si>
-    <t>取得價額</t>
-  </si>
-  <si>
-    <t>桃圜縣桃園市莊二段04489000建號</t>
-  </si>
-  <si>
-    <t>桃園縣桃園市莊二段04460000建號</t>
-  </si>
-  <si>
-    <t>全部</t>
-  </si>
-  <si>
-    <t>71分之1</t>
-  </si>
-  <si>
-    <t>97年05月19曰</t>
-  </si>
-  <si>
-    <t>廠牌型號</t>
-  </si>
-  <si>
-    <t>汽缸容量</t>
-  </si>
-  <si>
-    <t>所有人</t>
-  </si>
-  <si>
-    <t>國瑞</t>
-  </si>
-  <si>
-    <t>97年05月26日</t>
-  </si>
-  <si>
-    <t>1150000</t>
-  </si>
-  <si>
-    <t>存放機構(應敘明分支機構）</t>
-  </si>
-  <si>
-    <t>種類</t>
-  </si>
-  <si>
-    <t>幣別</t>
-  </si>
-  <si>
-    <t>外幣總額</t>
-  </si>
-  <si>
-    <t>新臺幣總額或折合新臺幣總額</t>
-  </si>
-  <si>
-    <t>合作金庫商業銀行</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>桃圜縣桃園市農會</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>桃圜信用合作社</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>中國國際商業銀行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行</t>
-  </si>
-  <si>
-    <t>渣打國際商業銀行</t>
-  </si>
-  <si>
-    <t>遠東國際商業銀行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行國外部國際金融業務分行</t>
-  </si>
-  <si>
-    <t>活期存款</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
-    <t>新臺幣</t>
-  </si>
-  <si>
-    <t>南非幣</t>
-  </si>
-  <si>
-    <t>124267.98</t>
-  </si>
-  <si>
-    <t>1219105</t>
-  </si>
-  <si>
-    <t>1176037</t>
-  </si>
-  <si>
-    <t>1589557</t>
-  </si>
-  <si>
-    <t>1278554</t>
-  </si>
-  <si>
-    <t>462276.89</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>total</t>
-  </si>
-  <si>
-    <t>太電</t>
-  </si>
-  <si>
-    <t>華新</t>
-  </si>
-  <si>
-    <t>生達</t>
-  </si>
-  <si>
-    <t>冠軍</t>
-  </si>
-  <si>
-    <t>永豐餘</t>
-  </si>
-  <si>
-    <t>燁輝</t>
-  </si>
-  <si>
-    <t>聯電</t>
-  </si>
-  <si>
-    <t>仁寶</t>
-  </si>
-  <si>
-    <t>茂矽</t>
-  </si>
-  <si>
-    <t>華邦電</t>
-  </si>
-  <si>
-    <t>佳世達</t>
-  </si>
-  <si>
-    <t>宏碁</t>
-  </si>
-  <si>
-    <t>英業達</t>
-  </si>
-  <si>
-    <t>美格</t>
-  </si>
-  <si>
-    <t>中工</t>
-  </si>
-  <si>
-    <t>達欣工</t>
-  </si>
-  <si>
-    <t>長榮</t>
-  </si>
-  <si>
-    <t>山隆</t>
-  </si>
-  <si>
-    <t>彰銀</t>
-  </si>
-  <si>
-    <t>中壽</t>
-  </si>
-  <si>
-    <t>華南金</t>
-  </si>
-  <si>
-    <t>國泰金</t>
-  </si>
-  <si>
-    <t>元大金</t>
-  </si>
-  <si>
-    <t>兆彗金</t>
-  </si>
-  <si>
-    <t>台新金</t>
-  </si>
-  <si>
-    <t>欣興</t>
-  </si>
-  <si>
-    <t>加捷</t>
-  </si>
-  <si>
-    <t>茂德</t>
-  </si>
-  <si>
-    <t>志嘉</t>
-  </si>
-  <si>
-    <t>凱基證</t>
-  </si>
-  <si>
-    <t>宏遠證</t>
-  </si>
-  <si>
-    <t>康和證</t>
-  </si>
-  <si>
-    <t>大慶證</t>
-  </si>
-  <si>
-    <t>大眾證</t>
-  </si>
-  <si>
-    <t>競國</t>
-  </si>
-  <si>
-    <t>彩晶</t>
-  </si>
-  <si>
-    <t>三采</t>
-  </si>
-  <si>
-    <t>尖美</t>
-  </si>
-  <si>
-    <t>士曰.丽楊麗場</t>
-  </si>
-  <si>
-    <t>26773</t>
-  </si>
-  <si>
-    <t>27295</t>
-  </si>
-  <si>
-    <t>45994</t>
-  </si>
-  <si>
-    <t>2275950</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>55990</t>
-  </si>
-  <si>
-    <t>3090</t>
-  </si>
-  <si>
-    <t>66560</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>投資人</t>
-  </si>
-  <si>
-    <t>投資事業名稱</t>
-  </si>
-  <si>
-    <t>投資事業地址</t>
-  </si>
-  <si>
-    <t>投資金額</t>
-  </si>
-  <si>
-    <t>取得（發生）時間</t>
-  </si>
-  <si>
-    <t>取得（發生）原因</t>
-  </si>
-  <si>
     <t>瑞恩帝兒幼稚圜</t>
   </si>
   <si>
+    <t>桃圜縣同安街505號</t>
+  </si>
+  <si>
+    <t>87年08月01日</t>
+  </si>
+  <si>
+    <t>投資</t>
+  </si>
+  <si>
     <t>瑞恩帝兒環中幼稚園</t>
   </si>
   <si>
     <t>瑞恩帝兒桃德幼稚園</t>
   </si>
   <si>
-    <t>桃圜縣同安街505號</t>
-  </si>
-  <si>
     <t>桃圜縣新生北路558號</t>
   </si>
   <si>
@@ -432,16 +363,10 @@
     <t>2500000</t>
   </si>
   <si>
-    <t>87年08月01日</t>
-  </si>
-  <si>
     <t>92年08月01日</t>
   </si>
   <si>
     <t>100年02月01日</t>
-  </si>
-  <si>
-    <t>投資</t>
   </si>
 </sst>
 </file>
@@ -800,13 +725,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O2"/>
+  <dimension ref="B1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="2:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -849,52 +774,11 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="2">
-        <v>1796</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2">
-        <v>960</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +788,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -912,76 +796,50 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="C1" s="1">
+        <v>121.97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="H1" s="1">
+        <v>892100</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2">
-        <v>121.97</v>
+        <v>9.29</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2">
-        <v>892100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="2">
-        <v>9.29</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="2">
         <v>130639</v>
       </c>
     </row>
@@ -992,7 +850,40 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="B1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="1">
+        <v>3456</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1000,417 +891,338 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3456</v>
+        <v>31</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>48</v>
+        <v>31</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>68</v>
+      <c r="G4" s="2">
+        <v>2937</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>2937</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>5380</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>3059</v>
+        <v>520466</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>520466</v>
+        <v>223262</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2">
-        <v>223262</v>
+      <c r="G9" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>69</v>
+      <c r="G10" s="2">
+        <v>200000</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>200000</v>
+        <v>491331</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>491331</v>
+        <v>29068</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>29068</v>
+        <v>456043</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>456043</v>
+        <v>568433</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
-        <v>568433</v>
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
-        <v>60</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="2">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2">
         <v>9.28</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G16" s="2">
         <v>34.52</v>
       </c>
     </row>
@@ -1421,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N39"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1435,16 +1247,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
@@ -1470,1673 +1282,1629 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L2" s="2">
         <v>960</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N2" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>10</v>
+        <v>22042</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2">
-        <v>100</v>
+        <v>220420</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L3" s="2">
         <v>960</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N3" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>22042</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2">
-        <v>220420</v>
+        <v>760</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L4" s="2">
         <v>960</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N4" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>76</v>
+        <v>2641</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G5" s="2">
-        <v>760</v>
+        <v>26410</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L5" s="2">
         <v>960</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N5" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="2">
-        <v>2641</v>
+        <v>227595</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="2">
-        <v>26410</v>
+        <v>29</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L6" s="2">
         <v>960</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N6" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>227595</v>
+        <v>27783</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>117</v>
+        <v>29</v>
+      </c>
+      <c r="G7" s="2">
+        <v>277830</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L7" s="2">
         <v>960</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N7" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>27783</v>
+        <v>23740</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2">
-        <v>277830</v>
+        <v>237400</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L8" s="2">
         <v>960</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N8" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>23740</v>
+        <v>99</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2">
-        <v>237400</v>
+        <v>990</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L9" s="2">
         <v>960</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N9" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>99</v>
+        <v>100000</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="2">
-        <v>990</v>
+        <v>29</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L10" s="2">
         <v>960</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N10" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>100000</v>
+        <v>7633</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>118</v>
+        <v>29</v>
+      </c>
+      <c r="G11" s="2">
+        <v>76330</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L11" s="2">
         <v>960</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N11" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>7633</v>
+        <v>951</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G12" s="2">
-        <v>76330</v>
+        <v>9510</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L12" s="2">
         <v>960</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N12" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2">
-        <v>951</v>
+        <v>17377</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G13" s="2">
-        <v>9510</v>
+        <v>173770</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L13" s="2">
         <v>960</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N13" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2">
-        <v>17377</v>
+        <v>274</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G14" s="2">
-        <v>173770</v>
+        <v>2740</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L14" s="2">
         <v>960</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N14" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2">
-        <v>274</v>
+        <v>642</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G15" s="2">
-        <v>2740</v>
+        <v>6420</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L15" s="2">
         <v>960</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N15" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="2">
-        <v>642</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G16" s="2">
-        <v>6420</v>
+        <v>150</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K16" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L16" s="2">
         <v>960</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N16" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G17" s="2">
-        <v>150</v>
+        <v>1370</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L17" s="2">
         <v>960</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N17" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D18" s="2">
-        <v>137</v>
+        <v>495</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G18" s="2">
-        <v>1370</v>
+        <v>4950</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L18" s="2">
         <v>960</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N18" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D19" s="2">
-        <v>495</v>
+        <v>21800</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G19" s="2">
-        <v>4950</v>
+        <v>218000</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L19" s="2">
         <v>960</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N19" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D20" s="2">
-        <v>21800</v>
+        <v>5599</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="2">
-        <v>218000</v>
+        <v>29</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L20" s="2">
         <v>960</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N20" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" s="2">
-        <v>5599</v>
+        <v>46</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>119</v>
+        <v>29</v>
+      </c>
+      <c r="G21" s="2">
+        <v>460</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K21" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L21" s="2">
         <v>960</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N21" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D22" s="2">
-        <v>46</v>
+        <v>1179</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G22" s="2">
-        <v>460</v>
+        <v>11790</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K22" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L22" s="2">
         <v>960</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N22" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D23" s="2">
-        <v>1179</v>
+        <v>23</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G23" s="2">
-        <v>11790</v>
+        <v>230</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K23" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L23" s="2">
         <v>960</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N23" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G24" s="2">
-        <v>230</v>
+        <v>990</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L24" s="2">
         <v>960</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N24" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G25" s="2">
-        <v>990</v>
+        <v>260</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L25" s="2">
         <v>960</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N25" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D26" s="2">
-        <v>26</v>
+        <v>309</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="2">
-        <v>260</v>
+        <v>29</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K26" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L26" s="2">
         <v>960</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N26" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D27" s="2">
-        <v>309</v>
+        <v>405</v>
       </c>
       <c r="E27" s="2">
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>120</v>
+        <v>29</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4050</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K27" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L27" s="2">
         <v>960</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N27" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="2">
-        <v>405</v>
+        <v>18</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G28" s="2">
-        <v>4050</v>
+        <v>267730</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K28" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L28" s="2">
         <v>960</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N28" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>114</v>
+        <v>18</v>
+      </c>
+      <c r="D29" s="2">
+        <v>145</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G29" s="2">
-        <v>267730</v>
+        <v>1450</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K29" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L29" s="2">
         <v>960</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N29" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2">
-        <v>145</v>
+        <v>20396</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G30" s="2">
-        <v>1450</v>
+        <v>203960</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K30" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L30" s="2">
         <v>960</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N30" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D31" s="2">
-        <v>20396</v>
+        <v>20000</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G31" s="2">
-        <v>203960</v>
+        <v>200000</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K31" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L31" s="2">
         <v>960</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N31" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D32" s="2">
-        <v>20000</v>
+        <v>23664</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G32" s="2">
-        <v>200000</v>
+        <v>236640</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K32" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L32" s="2">
         <v>960</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N32" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D33" s="2">
-        <v>23664</v>
+        <v>25584</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G33" s="2">
-        <v>236640</v>
+        <v>255840</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L33" s="2">
         <v>960</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N33" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="2">
-        <v>25584</v>
+        <v>18</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="E34" s="2">
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G34" s="2">
-        <v>255840</v>
+        <v>272950</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L34" s="2">
         <v>960</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N34" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>115</v>
+        <v>18</v>
+      </c>
+      <c r="D35" s="2">
+        <v>6656</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G35" s="2">
-        <v>272950</v>
+        <v>29</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I35" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K35" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L35" s="2">
         <v>960</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N35" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D36" s="2">
-        <v>6656</v>
+        <v>18</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E36" s="2">
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G36" s="2" t="s">
-        <v>121</v>
+        <v>29</v>
+      </c>
+      <c r="G36" s="2">
+        <v>459940</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L36" s="2">
         <v>960</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N36" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>116</v>
+        <v>18</v>
+      </c>
+      <c r="D37" s="2">
+        <v>345</v>
       </c>
       <c r="E37" s="2">
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G37" s="2">
-        <v>459940</v>
+        <v>3450</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L37" s="2">
         <v>960</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N37" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D38" s="2">
-        <v>345</v>
+        <v>632</v>
       </c>
       <c r="E38" s="2">
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="G38" s="2">
-        <v>3450</v>
+        <v>6320</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>22</v>
+        <v>102</v>
       </c>
       <c r="K38" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="L38" s="2">
         <v>960</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N38" s="2">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="1">
-        <v>105</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="2">
-        <v>632</v>
-      </c>
-      <c r="E39" s="2">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="2">
-        <v>6320</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L39" s="2">
-        <v>960</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N39" s="2">
         <v>105</v>
       </c>
     </row>
@@ -3147,7 +2915,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3155,91 +2923,68 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>123</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
+      </c>
+      <c r="E1" s="1">
+        <v>950000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="2">
-        <v>950000</v>
+        <v>110</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>146</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -69,24 +69,45 @@
     <t>total</t>
   </si>
   <si>
+    <t>桃圜縣桃園市和平段04110000地號</t>
+  </si>
+  <si>
+    <t>100000分之1942</t>
+  </si>
+  <si>
+    <t>楊麗環</t>
+  </si>
+  <si>
+    <t>97年05月19日</t>
+  </si>
+  <si>
+    <t>買賣</t>
+  </si>
+  <si>
+    <t>1102154</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>2012-04-30</t>
+  </si>
+  <si>
+    <t>tmp700a1</t>
+  </si>
+  <si>
     <t>桃圜縣桃園市莊二段04489000建號</t>
   </si>
   <si>
+    <t>桃園縣桃園市莊二段04460000建號</t>
+  </si>
+  <si>
     <t>全部</t>
   </si>
   <si>
-    <t>楊麗環</t>
-  </si>
-  <si>
-    <t>97年05月19日</t>
-  </si>
-  <si>
-    <t>買賣</t>
-  </si>
-  <si>
-    <t>桃園縣桃園市莊二段04460000建號</t>
-  </si>
-  <si>
     <t>71分之1</t>
   </si>
   <si>
@@ -183,6 +204,9 @@
     <t>currency</t>
   </si>
   <si>
+    <t>太電</t>
+  </si>
+  <si>
     <t>華新</t>
   </si>
   <si>
@@ -322,15 +346,6 @@
   </si>
   <si>
     <t>stock</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>2012-04-30</t>
-  </si>
-  <si>
-    <t>tmp700a1</t>
   </si>
   <si>
     <t>瑞恩帝兒幼稚圜</t>
@@ -725,13 +740,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:Q1"/>
+  <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:17">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,6 +794,59 @@
       </c>
       <c r="Q1" s="1" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1796</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>960</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>14</v>
+      </c>
+      <c r="P2" s="2">
+        <v>0.01942</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>34.87832</v>
       </c>
     </row>
   </sheetData>
@@ -788,59 +856,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:17">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2">
         <v>121.97</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1">
-        <v>892100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2">
-        <v>9.29</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="H2" s="2">
+        <v>892100</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2">
+        <v>960</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="2">
+        <v>19</v>
+      </c>
+      <c r="P2" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>121.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="2">
+        <v>9.29</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2">
         <v>130639</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="2">
+        <v>960</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="2">
+        <v>20</v>
+      </c>
+      <c r="P3" s="2">
+        <v>0.0140845070422535</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0.130845070422535</v>
       </c>
     </row>
   </sheetData>
@@ -850,15 +1025,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:7">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C1" s="1">
         <v>3456</v>
@@ -867,13 +1042,36 @@
         <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3456</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -883,7 +1081,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -891,338 +1089,359 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="2">
-        <v>2937</v>
+      <c r="G4" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2">
-        <v>5380</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2">
-        <v>3059</v>
+        <v>5380</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2">
-        <v>520466</v>
+        <v>3059</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2">
-        <v>223262</v>
+        <v>520466</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>49</v>
+      <c r="G9" s="2">
+        <v>223262</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="2">
-        <v>200000</v>
+      <c r="G10" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2">
-        <v>491331</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2">
-        <v>29068</v>
+        <v>491331</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2">
-        <v>456043</v>
+        <v>29068</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2">
-        <v>568433</v>
+        <v>456043</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>50</v>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2">
+        <v>568433</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1">
+        <v>59</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>60</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F16" s="2">
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2">
         <v>9.28</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>34.52</v>
       </c>
     </row>
@@ -1233,7 +1452,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1247,13 +1466,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1282,34 +1501,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E2" s="2">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G2" s="2">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>18</v>
@@ -1318,42 +1537,42 @@
         <v>960</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N2" s="2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="2">
-        <v>22042</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2">
-        <v>220420</v>
+        <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>18</v>
@@ -1362,42 +1581,42 @@
         <v>960</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N3" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="2">
-        <v>76</v>
+        <v>22042</v>
       </c>
       <c r="E4" s="2">
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2">
-        <v>760</v>
+        <v>220420</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>18</v>
@@ -1406,42 +1625,42 @@
         <v>960</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N4" s="2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D5" s="2">
-        <v>2641</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2">
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2">
-        <v>26410</v>
+        <v>760</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>18</v>
@@ -1450,42 +1669,42 @@
         <v>960</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N5" s="2">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D6" s="2">
-        <v>227595</v>
+        <v>2641</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>95</v>
+        <v>36</v>
+      </c>
+      <c r="G6" s="2">
+        <v>26410</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>18</v>
@@ -1494,42 +1713,42 @@
         <v>960</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N6" s="2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="2">
-        <v>27783</v>
+        <v>227595</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="2">
-        <v>277830</v>
+        <v>36</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>18</v>
@@ -1538,42 +1757,42 @@
         <v>960</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N7" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="2">
-        <v>23740</v>
+        <v>27783</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G8" s="2">
-        <v>237400</v>
+        <v>277830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>18</v>
@@ -1582,42 +1801,42 @@
         <v>960</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N8" s="2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="2">
-        <v>99</v>
+        <v>23740</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G9" s="2">
-        <v>990</v>
+        <v>237400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>18</v>
@@ -1626,42 +1845,42 @@
         <v>960</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N9" s="2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="2">
-        <v>100000</v>
+        <v>99</v>
       </c>
       <c r="E10" s="2">
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>96</v>
+        <v>36</v>
+      </c>
+      <c r="G10" s="2">
+        <v>990</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>18</v>
@@ -1670,42 +1889,42 @@
         <v>960</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N10" s="2">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="2">
-        <v>7633</v>
+        <v>100000</v>
       </c>
       <c r="E11" s="2">
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="2">
-        <v>76330</v>
+        <v>36</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>18</v>
@@ -1714,42 +1933,42 @@
         <v>960</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N11" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="2">
-        <v>951</v>
+        <v>7633</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G12" s="2">
-        <v>9510</v>
+        <v>76330</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>18</v>
@@ -1758,42 +1977,42 @@
         <v>960</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N12" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="2">
-        <v>17377</v>
+        <v>951</v>
       </c>
       <c r="E13" s="2">
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G13" s="2">
-        <v>173770</v>
+        <v>9510</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>18</v>
@@ -1802,42 +2021,42 @@
         <v>960</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N13" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D14" s="2">
-        <v>274</v>
+        <v>17377</v>
       </c>
       <c r="E14" s="2">
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2">
-        <v>2740</v>
+        <v>173770</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>18</v>
@@ -1846,42 +2065,42 @@
         <v>960</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N14" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="2">
-        <v>642</v>
+        <v>274</v>
       </c>
       <c r="E15" s="2">
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G15" s="2">
-        <v>6420</v>
+        <v>2740</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>18</v>
@@ -1890,42 +2109,42 @@
         <v>960</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N15" s="2">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2">
-        <v>15</v>
+        <v>642</v>
       </c>
       <c r="E16" s="2">
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G16" s="2">
-        <v>150</v>
+        <v>6420</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>18</v>
@@ -1934,42 +2153,42 @@
         <v>960</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N16" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="2">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2">
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G17" s="2">
-        <v>1370</v>
+        <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>18</v>
@@ -1978,42 +2197,42 @@
         <v>960</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N17" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D18" s="2">
-        <v>495</v>
+        <v>137</v>
       </c>
       <c r="E18" s="2">
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2">
-        <v>4950</v>
+        <v>1370</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>18</v>
@@ -2022,42 +2241,42 @@
         <v>960</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N18" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D19" s="2">
-        <v>21800</v>
+        <v>495</v>
       </c>
       <c r="E19" s="2">
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G19" s="2">
-        <v>218000</v>
+        <v>4950</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>18</v>
@@ -2066,42 +2285,42 @@
         <v>960</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N19" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="2">
-        <v>5599</v>
+        <v>21800</v>
       </c>
       <c r="E20" s="2">
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>97</v>
+        <v>36</v>
+      </c>
+      <c r="G20" s="2">
+        <v>218000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>18</v>
@@ -2110,42 +2329,42 @@
         <v>960</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N20" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="2">
-        <v>46</v>
+        <v>5599</v>
       </c>
       <c r="E21" s="2">
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" s="2">
-        <v>460</v>
+        <v>36</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>18</v>
@@ -2154,42 +2373,42 @@
         <v>960</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N21" s="2">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="2">
-        <v>1179</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2">
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G22" s="2">
-        <v>11790</v>
+        <v>460</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>18</v>
@@ -2198,42 +2417,42 @@
         <v>960</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N22" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="2">
-        <v>23</v>
+        <v>1179</v>
       </c>
       <c r="E23" s="2">
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G23" s="2">
-        <v>230</v>
+        <v>11790</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>18</v>
@@ -2242,42 +2461,42 @@
         <v>960</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N23" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="2">
-        <v>99</v>
+        <v>23</v>
       </c>
       <c r="E24" s="2">
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G24" s="2">
-        <v>990</v>
+        <v>230</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>18</v>
@@ -2286,42 +2505,42 @@
         <v>960</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N24" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="2">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="E25" s="2">
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G25" s="2">
-        <v>260</v>
+        <v>990</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K25" s="2" t="s">
         <v>18</v>
@@ -2330,42 +2549,42 @@
         <v>960</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N25" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="1">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="2">
-        <v>309</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2">
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>98</v>
+        <v>36</v>
+      </c>
+      <c r="G26" s="2">
+        <v>260</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>18</v>
@@ -2374,42 +2593,42 @@
         <v>960</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N26" s="2">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="1">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D27" s="2">
-        <v>405</v>
+        <v>309</v>
       </c>
       <c r="E27" s="2">
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G27" s="2">
-        <v>4050</v>
+        <v>36</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>18</v>
@@ -2418,42 +2637,42 @@
         <v>960</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N27" s="2">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="1">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="2" t="s">
-        <v>92</v>
+      <c r="D28" s="2">
+        <v>405</v>
       </c>
       <c r="E28" s="2">
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G28" s="2">
-        <v>267730</v>
+        <v>4050</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>18</v>
@@ -2462,42 +2681,42 @@
         <v>960</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N28" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="1">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="2">
-        <v>145</v>
+      <c r="D29" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G29" s="2">
-        <v>1450</v>
+        <v>267730</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>18</v>
@@ -2506,42 +2725,42 @@
         <v>960</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N29" s="2">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D30" s="2">
-        <v>20396</v>
+        <v>145</v>
       </c>
       <c r="E30" s="2">
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G30" s="2">
-        <v>203960</v>
+        <v>1450</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>18</v>
@@ -2550,42 +2769,42 @@
         <v>960</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N30" s="2">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="1">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D31" s="2">
-        <v>20000</v>
+        <v>20396</v>
       </c>
       <c r="E31" s="2">
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G31" s="2">
-        <v>200000</v>
+        <v>203960</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K31" s="2" t="s">
         <v>18</v>
@@ -2594,42 +2813,42 @@
         <v>960</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N31" s="2">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="1">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D32" s="2">
-        <v>23664</v>
+        <v>20000</v>
       </c>
       <c r="E32" s="2">
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G32" s="2">
-        <v>236640</v>
+        <v>200000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>18</v>
@@ -2638,42 +2857,42 @@
         <v>960</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N32" s="2">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D33" s="2">
-        <v>25584</v>
+        <v>23664</v>
       </c>
       <c r="E33" s="2">
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G33" s="2">
-        <v>255840</v>
+        <v>236640</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>18</v>
@@ -2682,174 +2901,174 @@
         <v>960</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>103</v>
+        <v>25</v>
       </c>
       <c r="N33" s="2">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="1">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="2" t="s">
-        <v>93</v>
+      <c r="D34" s="2">
+        <v>25584</v>
       </c>
       <c r="E34" s="2">
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G34" s="2">
-        <v>272950</v>
+        <v>255840</v>
       </c>
       <c r="H34" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="2">
+        <v>960</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N34" s="2">
         <v>100</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L34" s="2">
-        <v>960</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N34" s="2">
-        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="1">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="2">
-        <v>6656</v>
+      <c r="D35" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>99</v>
+        <v>36</v>
+      </c>
+      <c r="G35" s="2">
+        <v>272950</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="2">
+        <v>960</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N35" s="2">
         <v>101</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L35" s="2">
-        <v>960</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N35" s="2">
-        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="1">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>94</v>
+      <c r="D36" s="2">
+        <v>6656</v>
       </c>
       <c r="E36" s="2">
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G36" s="2">
-        <v>459940</v>
+        <v>36</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="2">
+        <v>960</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="2">
         <v>102</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L36" s="2">
-        <v>960</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N36" s="2">
-        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="1">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="2">
-        <v>345</v>
+      <c r="D37" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="E37" s="2">
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G37" s="2">
-        <v>3450</v>
+        <v>459940</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>101</v>
+        <v>23</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>18</v>
@@ -2858,53 +3077,97 @@
         <v>960</v>
       </c>
       <c r="M37" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N37" s="2">
         <v>103</v>
-      </c>
-      <c r="N37" s="2">
-        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="1">
+        <v>104</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="2">
+        <v>345</v>
+      </c>
+      <c r="E38" s="2">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="2">
+        <v>3450</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="2">
+        <v>960</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N38" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="1">
         <v>105</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="2">
+      <c r="B39" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="2">
         <v>632</v>
       </c>
-      <c r="E38" s="2">
-        <v>10</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G38" s="2">
+      <c r="E39" s="2">
+        <v>10</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="2">
         <v>6320</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L38" s="2">
-        <v>960</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="N38" s="2">
+      <c r="H39" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="2">
+        <v>960</v>
+      </c>
+      <c r="M39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N39" s="2">
         <v>105</v>
       </c>
     </row>
@@ -2915,7 +3178,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2926,65 +3189,88 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1">
         <v>950000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2">
+        <v>950000</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1">
+        <v>145</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>146</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>107</v>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
@@ -112,6 +112,9 @@
   </si>
   <si>
     <t>97年05月19曰</t>
+  </si>
+  <si>
+    <t>capacity</t>
   </si>
   <si>
     <t>國瑞</t>
@@ -1025,38 +1028,59 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="1">
-        <v>3456</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
@@ -1065,13 +1089,34 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>960</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1089,20 +1134,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1110,20 +1155,20 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1131,20 +1176,20 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1152,20 +1197,20 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1173,13 +1218,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1194,13 +1239,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1215,13 +1260,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1236,13 +1281,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1257,13 +1302,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1278,20 +1323,20 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1299,13 +1344,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -1320,13 +1365,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1341,13 +1386,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1362,13 +1407,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1383,13 +1428,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1404,22 +1449,22 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1427,13 +1472,13 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1466,13 +1511,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1504,7 +1549,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1516,13 +1561,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G2" s="2">
         <v>240</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1548,7 +1593,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1560,13 +1605,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" s="2">
         <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1592,7 +1637,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1604,13 +1649,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" s="2">
         <v>220420</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1636,7 +1681,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1648,13 +1693,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G5" s="2">
         <v>760</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1680,7 +1725,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1692,13 +1737,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="2">
         <v>26410</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1724,7 +1769,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1736,13 +1781,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -1768,7 +1813,7 @@
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1780,13 +1825,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G8" s="2">
         <v>277830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
@@ -1812,7 +1857,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1824,13 +1869,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G9" s="2">
         <v>237400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -1856,7 +1901,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -1868,13 +1913,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G10" s="2">
         <v>990</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
@@ -1900,7 +1945,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -1912,13 +1957,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>23</v>
@@ -1944,7 +1989,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -1956,13 +2001,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="2">
         <v>76330</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>23</v>
@@ -1988,7 +2033,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2000,13 +2045,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="2">
         <v>9510</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>23</v>
@@ -2032,7 +2077,7 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -2044,13 +2089,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" s="2">
         <v>173770</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>23</v>
@@ -2076,7 +2121,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -2088,13 +2133,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="2">
         <v>2740</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>23</v>
@@ -2120,7 +2165,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -2132,13 +2177,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" s="2">
         <v>6420</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>23</v>
@@ -2164,7 +2209,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -2176,13 +2221,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" s="2">
         <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>23</v>
@@ -2208,7 +2253,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -2220,13 +2265,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="2">
         <v>1370</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>23</v>
@@ -2252,7 +2297,7 @@
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
@@ -2264,13 +2309,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="2">
         <v>4950</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>23</v>
@@ -2296,7 +2341,7 @@
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -2308,13 +2353,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" s="2">
         <v>218000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>23</v>
@@ -2340,7 +2385,7 @@
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -2352,13 +2397,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>23</v>
@@ -2384,7 +2429,7 @@
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -2396,13 +2441,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22" s="2">
         <v>460</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>23</v>
@@ -2428,7 +2473,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -2440,13 +2485,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" s="2">
         <v>11790</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>23</v>
@@ -2472,7 +2517,7 @@
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -2484,13 +2529,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G24" s="2">
         <v>230</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>23</v>
@@ -2516,7 +2561,7 @@
         <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -2528,13 +2573,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G25" s="2">
         <v>990</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>23</v>
@@ -2560,7 +2605,7 @@
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -2572,13 +2617,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" s="2">
         <v>260</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>23</v>
@@ -2604,7 +2649,7 @@
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
@@ -2616,13 +2661,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>23</v>
@@ -2648,7 +2693,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -2660,13 +2705,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G28" s="2">
         <v>4050</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>23</v>
@@ -2692,25 +2737,25 @@
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G29" s="2">
         <v>267730</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>23</v>
@@ -2736,7 +2781,7 @@
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
@@ -2748,13 +2793,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G30" s="2">
         <v>1450</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>23</v>
@@ -2780,7 +2825,7 @@
         <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
@@ -2792,13 +2837,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G31" s="2">
         <v>203960</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>23</v>
@@ -2824,7 +2869,7 @@
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
@@ -2836,13 +2881,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G32" s="2">
         <v>200000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>23</v>
@@ -2868,7 +2913,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
@@ -2880,13 +2925,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G33" s="2">
         <v>236640</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>23</v>
@@ -2912,7 +2957,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
@@ -2924,13 +2969,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G34" s="2">
         <v>255840</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>23</v>
@@ -2956,25 +3001,25 @@
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G35" s="2">
         <v>272950</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>23</v>
@@ -3000,7 +3045,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>18</v>
@@ -3012,13 +3057,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>23</v>
@@ -3044,25 +3089,25 @@
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E37" s="2">
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G37" s="2">
         <v>459940</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>23</v>
@@ -3088,7 +3133,7 @@
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
@@ -3100,13 +3145,13 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G38" s="2">
         <v>3450</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>23</v>
@@ -3132,10 +3177,10 @@
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D39" s="2">
         <v>632</v>
@@ -3144,13 +3189,13 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G39" s="2">
         <v>6320</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>23</v>
@@ -3189,19 +3234,19 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1">
         <v>950000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3212,19 +3257,19 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3235,19 +3280,19 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3258,19 +3303,19 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="124">
   <si>
     <t>name</t>
   </si>
@@ -114,6 +114,9 @@
     <t>97年05月19曰</t>
   </si>
   <si>
+    <t>building</t>
+  </si>
+  <si>
     <t>capacity</t>
   </si>
   <si>
@@ -124,6 +127,9 @@
   </si>
   <si>
     <t>1150000</t>
+  </si>
+  <si>
+    <t>car</t>
   </si>
   <si>
     <t>合作金庫商業銀行</t>
@@ -941,7 +947,7 @@
         <v>892100</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>23</v>
@@ -994,7 +1000,7 @@
         <v>130639</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>23</v>
@@ -1039,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
@@ -1080,7 +1086,7 @@
         <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2">
         <v>3456</v>
@@ -1089,16 +1095,16 @@
         <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1134,20 +1140,20 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1155,20 +1161,20 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1176,20 +1182,20 @@
         <v>46</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1197,20 +1203,20 @@
         <v>47</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1218,13 +1224,13 @@
         <v>48</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
@@ -1239,13 +1245,13 @@
         <v>49</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
@@ -1260,13 +1266,13 @@
         <v>50</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
@@ -1281,13 +1287,13 @@
         <v>51</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
@@ -1302,13 +1308,13 @@
         <v>52</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
@@ -1323,20 +1329,20 @@
         <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1344,13 +1350,13 @@
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
@@ -1365,13 +1371,13 @@
         <v>55</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
@@ -1386,13 +1392,13 @@
         <v>56</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
@@ -1407,13 +1413,13 @@
         <v>57</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
@@ -1428,13 +1434,13 @@
         <v>58</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
@@ -1449,22 +1455,22 @@
         <v>59</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1472,13 +1478,13 @@
         <v>60</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
@@ -1511,13 +1517,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1549,7 +1555,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1561,13 +1567,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G2" s="2">
         <v>240</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1593,7 +1599,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1605,13 +1611,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G3" s="2">
         <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1637,7 +1643,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1649,13 +1655,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G4" s="2">
         <v>220420</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1681,7 +1687,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1693,13 +1699,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="2">
         <v>760</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1725,7 +1731,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1737,13 +1743,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G6" s="2">
         <v>26410</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1769,7 +1775,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1781,13 +1787,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -1813,7 +1819,7 @@
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1825,13 +1831,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G8" s="2">
         <v>277830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
@@ -1857,7 +1863,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1869,13 +1875,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G9" s="2">
         <v>237400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -1901,7 +1907,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -1913,13 +1919,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G10" s="2">
         <v>990</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
@@ -1945,7 +1951,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -1957,13 +1963,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>23</v>
@@ -1989,7 +1995,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2001,13 +2007,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12" s="2">
         <v>76330</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>23</v>
@@ -2033,7 +2039,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2045,13 +2051,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" s="2">
         <v>9510</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>23</v>
@@ -2077,7 +2083,7 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -2089,13 +2095,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G14" s="2">
         <v>173770</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>23</v>
@@ -2121,7 +2127,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -2133,13 +2139,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G15" s="2">
         <v>2740</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>23</v>
@@ -2165,7 +2171,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -2177,13 +2183,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G16" s="2">
         <v>6420</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>23</v>
@@ -2209,7 +2215,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -2221,13 +2227,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G17" s="2">
         <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>23</v>
@@ -2253,7 +2259,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -2265,13 +2271,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G18" s="2">
         <v>1370</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>23</v>
@@ -2297,7 +2303,7 @@
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
@@ -2309,13 +2315,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G19" s="2">
         <v>4950</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>23</v>
@@ -2341,7 +2347,7 @@
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -2353,13 +2359,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G20" s="2">
         <v>218000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>23</v>
@@ -2385,7 +2391,7 @@
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -2397,13 +2403,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>23</v>
@@ -2429,7 +2435,7 @@
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -2441,13 +2447,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G22" s="2">
         <v>460</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>23</v>
@@ -2473,7 +2479,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -2485,13 +2491,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G23" s="2">
         <v>11790</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>23</v>
@@ -2517,7 +2523,7 @@
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -2529,13 +2535,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G24" s="2">
         <v>230</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>23</v>
@@ -2561,7 +2567,7 @@
         <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -2573,13 +2579,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G25" s="2">
         <v>990</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>23</v>
@@ -2605,7 +2611,7 @@
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -2617,13 +2623,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G26" s="2">
         <v>260</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>23</v>
@@ -2649,7 +2655,7 @@
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
@@ -2661,13 +2667,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>23</v>
@@ -2693,7 +2699,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -2705,13 +2711,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G28" s="2">
         <v>4050</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>23</v>
@@ -2737,25 +2743,25 @@
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G29" s="2">
         <v>267730</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>23</v>
@@ -2781,7 +2787,7 @@
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
@@ -2793,13 +2799,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G30" s="2">
         <v>1450</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>23</v>
@@ -2825,7 +2831,7 @@
         <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
@@ -2837,13 +2843,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G31" s="2">
         <v>203960</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>23</v>
@@ -2869,7 +2875,7 @@
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
@@ -2881,13 +2887,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G32" s="2">
         <v>200000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>23</v>
@@ -2913,7 +2919,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
@@ -2925,13 +2931,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G33" s="2">
         <v>236640</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>23</v>
@@ -2957,7 +2963,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
@@ -2969,13 +2975,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G34" s="2">
         <v>255840</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>23</v>
@@ -3001,25 +3007,25 @@
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G35" s="2">
         <v>272950</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>23</v>
@@ -3045,7 +3051,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>18</v>
@@ -3057,13 +3063,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>23</v>
@@ -3089,25 +3095,25 @@
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E37" s="2">
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G37" s="2">
         <v>459940</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>23</v>
@@ -3133,7 +3139,7 @@
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
@@ -3145,13 +3151,13 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G38" s="2">
         <v>3450</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>23</v>
@@ -3177,10 +3183,10 @@
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D39" s="2">
         <v>632</v>
@@ -3189,13 +3195,13 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G39" s="2">
         <v>6320</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>23</v>
@@ -3234,19 +3240,19 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1">
         <v>950000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3257,19 +3263,19 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3280,19 +3286,19 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3303,19 +3309,19 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="121">
   <si>
     <t>name</t>
   </si>
@@ -132,85 +132,76 @@
     <t>car</t>
   </si>
   <si>
+    <t>bank</t>
+  </si>
+  <si>
+    <t>deposit_type</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
     <t>合作金庫商業銀行</t>
   </si>
   <si>
+    <t>臺灣銀行</t>
+  </si>
+  <si>
+    <t>桃圜縣桃園市農會</t>
+  </si>
+  <si>
+    <t>華南商業銀行</t>
+  </si>
+  <si>
+    <t>桃圜信用合作社</t>
+  </si>
+  <si>
+    <t>中華郵政股份有限公司</t>
+  </si>
+  <si>
+    <t>中國國際商業銀行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行</t>
+  </si>
+  <si>
+    <t>渣打國際商業銀行</t>
+  </si>
+  <si>
+    <t>遠東國際商業銀行</t>
+  </si>
+  <si>
+    <t>台北富邦商業銀行</t>
+  </si>
+  <si>
+    <t>大眾商業銀行國外部國際金融業務分行</t>
+  </si>
+  <si>
     <t>活期存款</t>
   </si>
   <si>
+    <t>定期存款</t>
+  </si>
+  <si>
+    <t>綜合存款</t>
+  </si>
+  <si>
+    <t>定期儲蓄存款</t>
+  </si>
+  <si>
     <t>新臺幣</t>
   </si>
   <si>
-    <t>1219105</t>
-  </si>
-  <si>
-    <t>臺灣銀行</t>
-  </si>
-  <si>
-    <t>桃圜縣桃園市農會</t>
-  </si>
-  <si>
-    <t>華南商業銀行</t>
-  </si>
-  <si>
-    <t>桃圜信用合作社</t>
-  </si>
-  <si>
-    <t>中華郵政股份有限公司</t>
-  </si>
-  <si>
-    <t>中國國際商業銀行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行</t>
-  </si>
-  <si>
-    <t>渣打國際商業銀行</t>
-  </si>
-  <si>
-    <t>遠東國際商業銀行</t>
-  </si>
-  <si>
-    <t>台北富邦商業銀行</t>
-  </si>
-  <si>
-    <t>大眾商業銀行國外部國際金融業務分行</t>
-  </si>
-  <si>
-    <t>定期存款</t>
-  </si>
-  <si>
-    <t>綜合存款</t>
-  </si>
-  <si>
-    <t>定期儲蓄存款</t>
-  </si>
-  <si>
     <t>南非幣</t>
   </si>
   <si>
-    <t>124267.98</t>
-  </si>
-  <si>
-    <t>1176037</t>
-  </si>
-  <si>
-    <t>1589557</t>
-  </si>
-  <si>
-    <t>1278554</t>
-  </si>
-  <si>
-    <t>462276.89</t>
+    <t>deposit</t>
   </si>
   <si>
     <t>quantity</t>
   </si>
   <si>
     <t>face_value</t>
-  </si>
-  <si>
-    <t>currency</t>
   </si>
   <si>
     <t>太電</t>
@@ -1132,13 +1123,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:13">
       <c r="B1" s="1" t="s">
         <v>37</v>
       </c>
@@ -1149,35 +1140,75 @@
         <v>39</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1"/>
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2"/>
+      <c r="F2" s="2">
+        <v>1219105</v>
+      </c>
       <c r="G2" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="2">
+        <v>960</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>46</v>
       </c>
@@ -1185,20 +1216,40 @@
         <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>1176037</v>
+      </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="2">
+        <v>960</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>47</v>
       </c>
@@ -1206,20 +1257,40 @@
         <v>41</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2"/>
+      <c r="F4" s="2">
+        <v>1589557</v>
+      </c>
       <c r="G4" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="2">
+        <v>960</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>48</v>
       </c>
@@ -1227,20 +1298,40 @@
         <v>42</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2">
+      <c r="F5" s="2">
         <v>2937</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="G5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="2">
+        <v>960</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>49</v>
       </c>
@@ -1248,20 +1339,40 @@
         <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2">
+      <c r="F6" s="2">
         <v>5380</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="2">
+        <v>960</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>50</v>
       </c>
@@ -1269,20 +1380,40 @@
         <v>44</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2">
+      <c r="F7" s="2">
         <v>3059</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="2">
+        <v>960</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>51</v>
       </c>
@@ -1290,20 +1421,40 @@
         <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2">
+      <c r="F8" s="2">
         <v>520466</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="2">
+        <v>960</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M8" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>52</v>
       </c>
@@ -1311,20 +1462,40 @@
         <v>46</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2">
+      <c r="F9" s="2">
         <v>223262</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" s="2">
+        <v>960</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M9" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>53</v>
       </c>
@@ -1332,20 +1503,40 @@
         <v>47</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2">
+        <v>1278554</v>
+      </c>
       <c r="G10" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="2">
+        <v>960</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M10" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>54</v>
       </c>
@@ -1353,20 +1544,40 @@
         <v>47</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2">
+      <c r="F11" s="2">
         <v>200000</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="2">
+        <v>960</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M11" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>55</v>
       </c>
@@ -1374,20 +1585,40 @@
         <v>48</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2">
+      <c r="F12" s="2">
         <v>491331</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="G12" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="2">
+        <v>960</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M12" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>56</v>
       </c>
@@ -1395,20 +1626,40 @@
         <v>49</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2">
+      <c r="F13" s="2">
         <v>29068</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="G13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="2">
+        <v>960</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M13" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>57</v>
       </c>
@@ -1416,20 +1667,40 @@
         <v>50</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2">
+      <c r="F14" s="2">
         <v>456043</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="2">
+        <v>960</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>58</v>
       </c>
@@ -1437,20 +1708,40 @@
         <v>50</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2">
+      <c r="F15" s="2">
         <v>568433</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="G15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="2">
+        <v>960</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M15" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>59</v>
       </c>
@@ -1458,22 +1749,40 @@
         <v>47</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>56</v>
+      <c r="F16" s="2">
+        <v>462276.89</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>58</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="2">
+        <v>960</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M16" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>60</v>
       </c>
@@ -1481,19 +1790,37 @@
         <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="2">
-        <v>9.28</v>
-      </c>
-      <c r="G17" s="2">
         <v>34.52</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="2">
+        <v>960</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M17" s="2">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1517,13 +1844,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>15</v>
@@ -1555,7 +1882,7 @@
         <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -1567,13 +1894,13 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2">
         <v>240</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>23</v>
@@ -1599,7 +1926,7 @@
         <v>68</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>18</v>
@@ -1611,13 +1938,13 @@
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G3" s="2">
         <v>100</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>23</v>
@@ -1643,7 +1970,7 @@
         <v>69</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>18</v>
@@ -1655,13 +1982,13 @@
         <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G4" s="2">
         <v>220420</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>23</v>
@@ -1687,7 +2014,7 @@
         <v>70</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>18</v>
@@ -1699,13 +2026,13 @@
         <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G5" s="2">
         <v>760</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>23</v>
@@ -1731,7 +2058,7 @@
         <v>71</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>18</v>
@@ -1743,13 +2070,13 @@
         <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G6" s="2">
         <v>26410</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>23</v>
@@ -1775,7 +2102,7 @@
         <v>72</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>18</v>
@@ -1787,13 +2114,13 @@
         <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>23</v>
@@ -1819,7 +2146,7 @@
         <v>73</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -1831,13 +2158,13 @@
         <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G8" s="2">
         <v>277830</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>23</v>
@@ -1863,7 +2190,7 @@
         <v>74</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>18</v>
@@ -1875,13 +2202,13 @@
         <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G9" s="2">
         <v>237400</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>23</v>
@@ -1907,7 +2234,7 @@
         <v>75</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>18</v>
@@ -1919,13 +2246,13 @@
         <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G10" s="2">
         <v>990</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>23</v>
@@ -1951,7 +2278,7 @@
         <v>76</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>18</v>
@@ -1963,13 +2290,13 @@
         <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>23</v>
@@ -1995,7 +2322,7 @@
         <v>78</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>18</v>
@@ -2007,13 +2334,13 @@
         <v>10</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G12" s="2">
         <v>76330</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>23</v>
@@ -2039,7 +2366,7 @@
         <v>79</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -2051,13 +2378,13 @@
         <v>10</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G13" s="2">
         <v>9510</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>23</v>
@@ -2083,7 +2410,7 @@
         <v>80</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>18</v>
@@ -2095,13 +2422,13 @@
         <v>10</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G14" s="2">
         <v>173770</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>23</v>
@@ -2127,7 +2454,7 @@
         <v>81</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>18</v>
@@ -2139,13 +2466,13 @@
         <v>10</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G15" s="2">
         <v>2740</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>23</v>
@@ -2171,7 +2498,7 @@
         <v>82</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -2183,13 +2510,13 @@
         <v>10</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G16" s="2">
         <v>6420</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>23</v>
@@ -2215,7 +2542,7 @@
         <v>83</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -2227,13 +2554,13 @@
         <v>10</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G17" s="2">
         <v>150</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>23</v>
@@ -2259,7 +2586,7 @@
         <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -2271,13 +2598,13 @@
         <v>10</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G18" s="2">
         <v>1370</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>23</v>
@@ -2303,7 +2630,7 @@
         <v>85</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
@@ -2315,13 +2642,13 @@
         <v>10</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G19" s="2">
         <v>4950</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>23</v>
@@ -2347,7 +2674,7 @@
         <v>86</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>18</v>
@@ -2359,13 +2686,13 @@
         <v>10</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G20" s="2">
         <v>218000</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>23</v>
@@ -2391,7 +2718,7 @@
         <v>87</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>18</v>
@@ -2403,13 +2730,13 @@
         <v>10</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>23</v>
@@ -2435,7 +2762,7 @@
         <v>88</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>18</v>
@@ -2447,13 +2774,13 @@
         <v>10</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G22" s="2">
         <v>460</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>23</v>
@@ -2479,7 +2806,7 @@
         <v>89</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>18</v>
@@ -2491,13 +2818,13 @@
         <v>10</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G23" s="2">
         <v>11790</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>23</v>
@@ -2523,7 +2850,7 @@
         <v>90</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>18</v>
@@ -2535,13 +2862,13 @@
         <v>10</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G24" s="2">
         <v>230</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I24" s="2" t="s">
         <v>23</v>
@@ -2567,7 +2894,7 @@
         <v>91</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>18</v>
@@ -2579,13 +2906,13 @@
         <v>10</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G25" s="2">
         <v>990</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>23</v>
@@ -2611,7 +2938,7 @@
         <v>92</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>18</v>
@@ -2623,13 +2950,13 @@
         <v>10</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G26" s="2">
         <v>260</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>23</v>
@@ -2655,7 +2982,7 @@
         <v>93</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>18</v>
@@ -2667,13 +2994,13 @@
         <v>10</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>23</v>
@@ -2699,7 +3026,7 @@
         <v>94</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>18</v>
@@ -2711,13 +3038,13 @@
         <v>10</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G28" s="2">
         <v>4050</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>23</v>
@@ -2743,25 +3070,25 @@
         <v>95</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2">
         <v>10</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G29" s="2">
         <v>267730</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>23</v>
@@ -2787,7 +3114,7 @@
         <v>96</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>18</v>
@@ -2799,13 +3126,13 @@
         <v>10</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G30" s="2">
         <v>1450</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>23</v>
@@ -2831,7 +3158,7 @@
         <v>97</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>18</v>
@@ -2843,13 +3170,13 @@
         <v>10</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G31" s="2">
         <v>203960</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>23</v>
@@ -2875,7 +3202,7 @@
         <v>98</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>18</v>
@@ -2887,13 +3214,13 @@
         <v>10</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G32" s="2">
         <v>200000</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>23</v>
@@ -2919,7 +3246,7 @@
         <v>99</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>18</v>
@@ -2931,13 +3258,13 @@
         <v>10</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G33" s="2">
         <v>236640</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>23</v>
@@ -2963,7 +3290,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>18</v>
@@ -2975,13 +3302,13 @@
         <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G34" s="2">
         <v>255840</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>23</v>
@@ -3007,25 +3334,25 @@
         <v>101</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E35" s="2">
         <v>10</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G35" s="2">
         <v>272950</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>23</v>
@@ -3051,7 +3378,7 @@
         <v>102</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>18</v>
@@ -3063,13 +3390,13 @@
         <v>10</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>23</v>
@@ -3095,25 +3422,25 @@
         <v>103</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>18</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E37" s="2">
         <v>10</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G37" s="2">
         <v>459940</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I37" s="2" t="s">
         <v>23</v>
@@ -3139,7 +3466,7 @@
         <v>104</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>18</v>
@@ -3151,13 +3478,13 @@
         <v>10</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G38" s="2">
         <v>3450</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I38" s="2" t="s">
         <v>23</v>
@@ -3183,10 +3510,10 @@
         <v>105</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D39" s="2">
         <v>632</v>
@@ -3195,13 +3522,13 @@
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="G39" s="2">
         <v>6320</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="I39" s="2" t="s">
         <v>23</v>
@@ -3240,19 +3567,19 @@
         <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1">
         <v>950000</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3263,19 +3590,19 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3286,19 +3613,19 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3309,19 +3636,19 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
+++ b/legislator/property/output/normal/楊麗環_2012-04-30_財產申報表_tmp700a1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
@@ -348,40 +348,43 @@
     <t>stock</t>
   </si>
   <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
     <t>瑞恩帝兒幼稚圜</t>
   </si>
   <si>
+    <t>瑞恩帝兒環中幼稚園</t>
+  </si>
+  <si>
+    <t>瑞恩帝兒桃德幼稚園</t>
+  </si>
+  <si>
     <t>桃圜縣同安街505號</t>
   </si>
   <si>
+    <t>桃圜縣新生北路558號</t>
+  </si>
+  <si>
+    <t>桃圜縣桃德路305號</t>
+  </si>
+  <si>
     <t>87年08月01日</t>
   </si>
   <si>
+    <t>92年08月01日</t>
+  </si>
+  <si>
+    <t>100年02月01日</t>
+  </si>
+  <si>
     <t>投資</t>
   </si>
   <si>
-    <t>瑞恩帝兒環中幼稚園</t>
-  </si>
-  <si>
-    <t>瑞恩帝兒桃德幼稚園</t>
-  </si>
-  <si>
-    <t>桃圜縣新生北路558號</t>
-  </si>
-  <si>
-    <t>桃圜縣桃德路305號</t>
-  </si>
-  <si>
-    <t>2000000</t>
-  </si>
-  <si>
-    <t>2500000</t>
-  </si>
-  <si>
-    <t>92年08月01日</t>
-  </si>
-  <si>
-    <t>100年02月01日</t>
+    <t>investment</t>
   </si>
 </sst>
 </file>
@@ -3556,15 +3559,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:14">
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>109</v>
@@ -3572,17 +3575,38 @@
       <c r="D1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="1">
-        <v>950000</v>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1">
         <v>144</v>
       </c>
@@ -3590,22 +3614,43 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2">
         <v>950000</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>120</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="2">
+        <v>960</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>145</v>
       </c>
@@ -3613,22 +3658,43 @@
         <v>18</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>117</v>
+      <c r="E3" s="2">
+        <v>2000000</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>120</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="2">
+        <v>960</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>146</v>
       </c>
@@ -3636,19 +3702,40 @@
         <v>18</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>118</v>
+      <c r="E4" s="2">
+        <v>2500000</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>112</v>
+      <c r="H4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="2">
+        <v>960</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="2">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
